--- a/projetCDA/Base de donnée/MLD_MCD_SCRIPT/7. cuisine Dictionnaire de données.xlsx
+++ b/projetCDA/Base de donnée/MLD_MCD_SCRIPT/7. cuisine Dictionnaire de données.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilyy\Documents\CDA 2021-2022\Base de données\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-07-09\projetCDA\Base de donnée\MLD_MCD_SCRIPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t xml:space="preserve">Dictionnaire de données </t>
   </si>
@@ -192,12 +192,21 @@
   </si>
   <si>
     <t xml:space="preserve">nom de la categorie </t>
+  </si>
+  <si>
+    <t>TypeTable</t>
+  </si>
+  <si>
+    <t>idTypeTable</t>
+  </si>
+  <si>
+    <t>identifiant du type de table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,28 +613,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
@@ -776,9 +763,6 @@
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
@@ -839,6 +823,44 @@
         <v>55</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projetCDA/Base de donnée/MLD_MCD_SCRIPT/7. cuisine Dictionnaire de données.xlsx
+++ b/projetCDA/Base de donnée/MLD_MCD_SCRIPT/7. cuisine Dictionnaire de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t xml:space="preserve">Dictionnaire de données </t>
   </si>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +235,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,6 +289,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,6 +312,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFFFFF"/>
@@ -546,41 +595,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="37.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="38.42578125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -591,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -613,251 +652,227 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>54</v>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>55</v>
+      <c r="A32" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>56</v>
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
     </row>
